--- a/biology/Histoire de la zoologie et de la botanique/Jean-Baptiste_de_Panafieu/Jean-Baptiste_de_Panafieu.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Baptiste_de_Panafieu/Jean-Baptiste_de_Panafieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste de Panafieu, né le 11 juin 1955, est agrégé de sciences naturelles et docteur en océanologie biologique. Il a publié de nombreux ouvrages de vulgarisation scientifique (Gallimard Jeunesse, Milan, Gulf Stream, Casterman, Plume de Carotte, Xavier Barral). Il est également réalisateur et scénariste de films documentaires.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1978, Jean-Baptiste de Panafieu obtient une maîtrise de génétique à l’université Paris 6. Il passe ensuite l’agrégation de sciences naturelles pour être professeur de biologie. Passionné par les écosystèmes marins, il soutient en 1996 un doctorat d’océanologie biologique (portant sur l’alimentation des merlans en mer du Nord). En 1993, il s’oriente dans la diffusion scientifique avec une licence de Cinéma à l'université Paris 7.
 À l'âge de trente ans, il commence à écrire des livres sur la nature et les sciences et se lance dans la production de documentaires pour la télévision. Il abandonne peu à peu l’enseignement et se consacre pleinement, à partir de 1997, à la rédaction d'ouvrages ou d'articles pour des magazines sur des thèmes scientifiques et la réalisation de documentaires et de reportages (CNDP, La Cinquième).
-Entre 1993 et 1999, Jean-Baptiste de Panafieu assure la fonction de conseiller scientifique pour les voyages du dundee Fleur de Lampaul avec un équipage d’enfants. Vouant une grande part de ses publications à destination de la jeunesse, il conçoit également des expositions éducatives, s'essaie à la création de jeux de société[1] et présente son travail en tant qu'intervenant dans les classes et auprès des documentalistes. Il organise enfin des conférences et participe à des débats avec le public lors de « bars des sciences[2] » à Paris.
+Entre 1993 et 1999, Jean-Baptiste de Panafieu assure la fonction de conseiller scientifique pour les voyages du dundee Fleur de Lampaul avec un équipage d’enfants. Vouant une grande part de ses publications à destination de la jeunesse, il conçoit également des expositions éducatives, s'essaie à la création de jeux de société et présente son travail en tant qu'intervenant dans les classes et auprès des documentalistes. Il organise enfin des conférences et participe à des débats avec le public lors de « bars des sciences » à Paris.
 Il a publié près d'une centaine d'ouvrages, en tant qu'auteur ou coauteur. Les sujets qu’il aborde sont : l’environnement et l’écologie, la vie dans les océans, l'alimentation, l'évolution des formes animales et la paléoanthropologie.
 </t>
         </is>
